--- a/Peaks-dataset-article/redes-ensemble-s/Teste05/better_results.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste05/better_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,1702 +527,4726 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>model_22_9_0</t>
+          <t>model_2_9_19</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9998401530247623</v>
+        <v>0.997451060348341</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8251524996196588</v>
+        <v>0.8116479107177935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9986200337059677</v>
+        <v>0.9753501810958675</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9997296204734236</v>
+        <v>0.9976518619625084</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9994282459175685</v>
+        <v>0.995258513797711</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0002268795777567717</v>
+        <v>0.01704477118743183</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2481706457011295</v>
+        <v>1.259511288311739</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00107181206659941</v>
+        <v>0.0418858156702238</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0003461839329454344</v>
+        <v>0.03253861401058391</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007090023618995093</v>
+        <v>0.03721216027190746</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01329431775750658</v>
+        <v>0.2059262776550833</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01506252229066472</v>
+        <v>0.1305556248785621</v>
       </c>
       <c r="O2" t="n">
-        <v>1.000006625781357</v>
+        <v>1.001359434480885</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01570376504829791</v>
+        <v>0.1361136481170432</v>
       </c>
       <c r="Q2" t="n">
-        <v>1222.782182351417</v>
+        <v>146.143823595022</v>
       </c>
       <c r="R2" t="n">
-        <v>1957.764304746942</v>
+        <v>230.2462555109279</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>model_22_9_1</t>
+          <t>model_2_9_18</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.999840148582673</v>
+        <v>0.9974488338758669</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8251525175977871</v>
+        <v>0.8114778150902741</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9986199949681903</v>
+        <v>0.9767038301346265</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9997296141287978</v>
+        <v>0.9977840235289528</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9994282310207155</v>
+        <v>0.9955217271524078</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002268858826577248</v>
+        <v>0.01705965961911797</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2481706201837861</v>
+        <v>1.26064871855618</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001071842154013507</v>
+        <v>0.03958564890874994</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0003461920563692762</v>
+        <v>0.03070722499984101</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0007090208347085881</v>
+        <v>0.03514640765283298</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01329491784952716</v>
+        <v>0.2155957010449485</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01506273158021893</v>
+        <v>0.1306126319278422</v>
       </c>
       <c r="O3" t="n">
-        <v>1.000006625965485</v>
+        <v>1.001360621932871</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01570398324774173</v>
+        <v>0.1361730820744319</v>
       </c>
       <c r="Q3" t="n">
-        <v>1222.782126772916</v>
+        <v>146.1420773782074</v>
       </c>
       <c r="R3" t="n">
-        <v>1957.764249168441</v>
+        <v>230.2445092941132</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>model_22_9_2</t>
+          <t>model_2_9_20</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9998401445090002</v>
+        <v>0.9974441232596961</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8251525190435377</v>
+        <v>0.8117996820807794</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9986199573951215</v>
+        <v>0.9740325767062273</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9997296047398737</v>
+        <v>0.9975230709968401</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9994282174412299</v>
+        <v>0.9950021679814866</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0002268916646449084</v>
+        <v>0.01709115953114242</v>
       </c>
       <c r="I4" t="n">
-        <v>0.248170618131753</v>
+        <v>1.25849639250861</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001071871336804853</v>
+        <v>0.04412473413065485</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003462040776000099</v>
+        <v>0.0343232959385715</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007090376739191662</v>
+        <v>0.03922401503461317</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01329303698821029</v>
+        <v>0.196844370190955</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01506292350922982</v>
+        <v>0.1307331615587354</v>
       </c>
       <c r="O4" t="n">
-        <v>1.000006626134342</v>
+        <v>1.001363134261495</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01570418334756796</v>
+        <v>0.136298742901243</v>
       </c>
       <c r="Q4" t="n">
-        <v>1222.782075805325</v>
+        <v>146.13838787128</v>
       </c>
       <c r="R4" t="n">
-        <v>1957.76419820085</v>
+        <v>230.2408197871859</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>model_22_9_3</t>
+          <t>model_2_9_17</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9998401431215934</v>
+        <v>0.9974356704061602</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8251525312322723</v>
+        <v>0.8112871962857764</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9986199390930662</v>
+        <v>0.9780902773129534</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9997296042513145</v>
+        <v>0.9979192206702533</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9994282134714005</v>
+        <v>0.9957911660670781</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002268936338674635</v>
+        <v>0.01714768380165893</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2481706008316136</v>
+        <v>1.261923387379575</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001071885551908407</v>
+        <v>0.03722975042634089</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0003462047031330931</v>
+        <v>0.02883377142689539</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007090425966970685</v>
+        <v>0.03303179555687073</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01329375605002713</v>
+        <v>0.2258872171572762</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01506298887563366</v>
+        <v>0.1309491649521253</v>
       </c>
       <c r="O5" t="n">
-        <v>1.000006626191851</v>
+        <v>1.001367642450048</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01570425149675495</v>
+        <v>0.1365239420062782</v>
       </c>
       <c r="Q5" t="n">
-        <v>1222.782058447137</v>
+        <v>146.1317843395757</v>
       </c>
       <c r="R5" t="n">
-        <v>1957.764180842662</v>
+        <v>230.2342162554815</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>model_22_9_4</t>
+          <t>model_2_9_21</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9998401396198875</v>
+        <v>0.9974295149275144</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8251525477035119</v>
+        <v>0.8119350801102593</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9986199129522194</v>
+        <v>0.9727530972059604</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9997295997987813</v>
+        <v>0.9973978401491324</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9994282009452882</v>
+        <v>0.9947530993387945</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002268986040306357</v>
+        <v>0.01718884551570654</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2481705774530799</v>
+        <v>1.257590985262027</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001071905855357254</v>
+        <v>0.04629886947462784</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000346210403991845</v>
+        <v>0.03605864460663114</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007090581296745494</v>
+        <v>0.0411787570406295</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0132938924193047</v>
+        <v>0.1883176757760545</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01506315385404517</v>
+        <v>0.1311062375163994</v>
       </c>
       <c r="O6" t="n">
-        <v>1.000006626337</v>
+        <v>1.001370925371992</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01570442349863898</v>
+        <v>0.1366877014747985</v>
       </c>
       <c r="Q6" t="n">
-        <v>1222.782014637105</v>
+        <v>146.1269892441385</v>
       </c>
       <c r="R6" t="n">
-        <v>1957.76413703263</v>
+        <v>230.2294211600443</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>model_22_9_5</t>
+          <t>model_2_9_16</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9998401374163525</v>
+        <v>0.9974095242374942</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8251525701206495</v>
+        <v>0.811073628491664</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9986199059522779</v>
+        <v>0.9795056044542044</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9997295887752294</v>
+        <v>0.998057069818036</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9994281930621389</v>
+        <v>0.9960660852357549</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002269017316287704</v>
+        <v>0.01732252335192032</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2481705456352072</v>
+        <v>1.263351516202194</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001071911292172465</v>
+        <v>0.03482477812280937</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0003462245181393473</v>
+        <v>0.02692356847469436</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007090679051559061</v>
+        <v>0.03087417329875187</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0132934884423456</v>
+        <v>0.2368457797421039</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01506325766986578</v>
+        <v>0.1316150574665388</v>
       </c>
       <c r="O7" t="n">
-        <v>1.000006626428338</v>
+        <v>1.001381587073336</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01570453173411401</v>
+        <v>0.1372181829436178</v>
       </c>
       <c r="Q7" t="n">
-        <v>1222.78198706905</v>
+        <v>146.1114953927899</v>
       </c>
       <c r="R7" t="n">
-        <v>1957.764109464575</v>
+        <v>230.2139273086957</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>model_22_9_6</t>
+          <t>model_2_9_22</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9998401365512083</v>
+        <v>0.9974086494768584</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8251526053388949</v>
+        <v>0.8120559255979419</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9986198913815635</v>
+        <v>0.9715138207837054</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997295925559928</v>
+        <v>0.9972764425320984</v>
       </c>
       <c r="G8" t="n">
-        <v>0.999428190961085</v>
+        <v>0.9945117670044527</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002269029595752931</v>
+        <v>0.01732837288032005</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2481704956480202</v>
+        <v>1.256782890929451</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001071922609164532</v>
+        <v>0.04840469037290322</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0003462196773899201</v>
+        <v>0.03774087543778502</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000709070510563141</v>
+        <v>0.04307278290534412</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01329178747791211</v>
+        <v>0.1803022654682103</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01506329842947066</v>
+        <v>0.1316372777002018</v>
       </c>
       <c r="O8" t="n">
-        <v>1.000006626464199</v>
+        <v>1.001382053612342</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01570457422893964</v>
+        <v>0.1372413491386301</v>
       </c>
       <c r="Q8" t="n">
-        <v>1222.781976245482</v>
+        <v>146.1108201400153</v>
       </c>
       <c r="R8" t="n">
-        <v>1957.764098641007</v>
+        <v>230.2132520559211</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>model_22_9_7</t>
+          <t>model_2_9_23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9998401338544861</v>
+        <v>0.9973826592702316</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8251526166123739</v>
+        <v>0.812163785848439</v>
       </c>
       <c r="E9" t="n">
-        <v>0.998619872706647</v>
+        <v>0.9703160096145047</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9997295822864399</v>
+        <v>0.9971589745632887</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9994281803211635</v>
+        <v>0.994278392736665</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002269067871810778</v>
+        <v>0.01750216951170702</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2481704796469531</v>
+        <v>1.256061628937727</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001071937113867268</v>
+        <v>0.05044005209446401</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0003462328261450901</v>
+        <v>0.03936865235493263</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007090837045737711</v>
+        <v>0.04490435222469831</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01329219712554298</v>
+        <v>0.1727771143498103</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01506342547965362</v>
+        <v>0.1322957652825933</v>
       </c>
       <c r="O9" t="n">
-        <v>1.00000662657598</v>
+        <v>1.001395915055876</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01570470668791192</v>
+        <v>0.1379278699006612</v>
       </c>
       <c r="Q9" t="n">
-        <v>1222.781942507945</v>
+        <v>146.0908608672781</v>
       </c>
       <c r="R9" t="n">
-        <v>1957.76406490347</v>
+        <v>230.1932927831839</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>model_22_9_10</t>
+          <t>model_2_9_15</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9998401316576185</v>
+        <v>0.9973680921085936</v>
       </c>
       <c r="D10" t="n">
-        <v>0.825152644491034</v>
+        <v>0.8108342647301608</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9986198482710885</v>
+        <v>0.9809451572764264</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9997295858382638</v>
+        <v>0.9981971542697761</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9994281704741145</v>
+        <v>0.996345600086373</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0002269099053156607</v>
+        <v>0.01759958018865615</v>
       </c>
       <c r="I10" t="n">
-        <v>0.248170440077242</v>
+        <v>1.264952142777534</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001071956092828156</v>
+        <v>0.03237864071329558</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0003462282785214643</v>
+        <v>0.02498239047268822</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0007090959153847418</v>
+        <v>0.0286804831822319</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01329213122836248</v>
+        <v>0.2485104399525094</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01506352897948089</v>
+        <v>0.1326634093812463</v>
       </c>
       <c r="O10" t="n">
-        <v>1.000006626667042</v>
+        <v>1.00140368420875</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01570481459394112</v>
+        <v>0.138311165369722</v>
       </c>
       <c r="Q10" t="n">
-        <v>1222.781915024296</v>
+        <v>146.0797604602796</v>
       </c>
       <c r="R10" t="n">
-        <v>1957.764037419822</v>
+        <v>230.1821923761854</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>model_22_9_9</t>
+          <t>model_2_9_24</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.999840131240973</v>
+        <v>0.9973525866107236</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8251526354824023</v>
+        <v>0.8122600222208161</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9986198394864028</v>
+        <v>0.9691608515865253</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9997295873451301</v>
+        <v>0.9970455838252948</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9994281709715552</v>
+        <v>0.9940532337571081</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002269104966834709</v>
+        <v>0.01770326552430962</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2481704528636872</v>
+        <v>1.255418095872513</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001071962915844286</v>
+        <v>0.05240293613909332</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0003462263491856495</v>
+        <v>0.04093993027686369</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0007090952985345225</v>
+        <v>0.04667144626999713</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01329118128069884</v>
+        <v>0.1657040364817196</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01506354860859389</v>
+        <v>0.1330536189823848</v>
       </c>
       <c r="O11" t="n">
-        <v>1.000006626684312</v>
+        <v>1.001411953807614</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01570483505870609</v>
+        <v>0.1387179870014262</v>
       </c>
       <c r="Q11" t="n">
-        <v>1222.781909811946</v>
+        <v>146.0680123270405</v>
       </c>
       <c r="R11" t="n">
-        <v>1957.764032207471</v>
+        <v>230.1704442429463</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>model_22_9_11</t>
+          <t>model_2_9_14</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9998401308786784</v>
+        <v>0.9973087335462102</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8251526612302235</v>
+        <v>0.8105661355773596</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9986198485121206</v>
+        <v>0.9824038362714499</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9997295813356262</v>
+        <v>0.9983389136095475</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9994281696752351</v>
+        <v>0.9966286558391892</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0002269110109080749</v>
+        <v>0.01799651116863536</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2481704163183925</v>
+        <v>1.266745123656937</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001071955905619921</v>
+        <v>0.02990000345655944</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0003462340435318827</v>
+        <v>0.02301800321539228</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0007090969060334156</v>
+        <v>0.02645900333597585</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01329284944880903</v>
+        <v>0.2609377852513163</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01506356567709236</v>
+        <v>0.1341510759130741</v>
       </c>
       <c r="O12" t="n">
-        <v>1.000006626699329</v>
+        <v>1.001435342108688</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01570485285384587</v>
+        <v>0.139862164945704</v>
       </c>
       <c r="Q12" t="n">
-        <v>1222.78190527955</v>
+        <v>146.0351547276739</v>
       </c>
       <c r="R12" t="n">
-        <v>1957.764027675075</v>
+        <v>230.1375866435798</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>model_22_9_8</t>
+          <t>model_2_9_13</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9998401306675504</v>
+        <v>0.9972284737104338</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8251526255507209</v>
+        <v>0.8102656899024906</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9986198320415424</v>
+        <v>0.9838753359983785</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9997295868485928</v>
+        <v>0.9984817115265839</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9994281689207914</v>
+        <v>0.9969140205285284</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0002269113105735963</v>
+        <v>0.01853320906003456</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2481704669602672</v>
+        <v>1.268754205268211</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001071968698225519</v>
+        <v>0.02739958077351159</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0003462269849335091</v>
+        <v>0.02103922418716847</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0007090978415795138</v>
+        <v>0.02421940248034003</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01329090457494794</v>
+        <v>0.2741642074396839</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01506357562378854</v>
+        <v>0.136136729283594</v>
       </c>
       <c r="O13" t="n">
-        <v>1.000006626708081</v>
+        <v>1.001478147354435</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01570486322399351</v>
+        <v>0.1419323516910761</v>
       </c>
       <c r="Q13" t="n">
-        <v>1222.781902638292</v>
+        <v>145.97638214362</v>
       </c>
       <c r="R13" t="n">
-        <v>1957.764025033817</v>
+        <v>230.0788140595259</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>model_22_9_12</t>
+          <t>model_2_9_12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9998401293909597</v>
+        <v>0.9971239020965844</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8251526697461966</v>
+        <v>0.8099291986012556</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9986198283043503</v>
+        <v>0.9853519110187604</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9997295823494765</v>
+        <v>0.9986248505401021</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9994281643535289</v>
+        <v>0.9972002327060814</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0002269131225087831</v>
+        <v>0.0192324799233532</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2481704042312048</v>
+        <v>1.27100432414897</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001071971600881571</v>
+        <v>0.02489053397817775</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0003462327454354274</v>
+        <v>0.01905571851741831</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0007091035052031596</v>
+        <v>0.02197315036265383</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01329256568902359</v>
+        <v>0.2882592708948553</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01506363576659975</v>
+        <v>0.1386812169089715</v>
       </c>
       <c r="O14" t="n">
-        <v>1.000006626760996</v>
+        <v>1.001533918881822</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0157049259272087</v>
+        <v>0.1445851634224814</v>
       </c>
       <c r="Q14" t="n">
-        <v>1222.781886667929</v>
+        <v>145.9023095330468</v>
       </c>
       <c r="R14" t="n">
-        <v>1957.764009063454</v>
+        <v>230.0047414489527</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>model_22_9_21</t>
+          <t>model_2_9_11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9998401271269179</v>
+        <v>0.996991161888649</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8251526871187265</v>
+        <v>0.8095523686001933</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9986197999074812</v>
+        <v>0.9868251682110373</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9997295818070083</v>
+        <v>0.9987675056407571</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9994281562545845</v>
+        <v>0.9974856634705626</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0002269163359874211</v>
+        <v>0.02012011430502972</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2481703795734206</v>
+        <v>1.273524188101216</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001071993656570265</v>
+        <v>0.02238712494987864</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0003462334399916723</v>
+        <v>0.01707891852408543</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007091135482809685</v>
+        <v>0.01973303093569455</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01329013054958035</v>
+        <v>0.3032587262123228</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01506374242966937</v>
+        <v>0.1418453887337538</v>
       </c>
       <c r="O15" t="n">
-        <v>1.000006626854843</v>
+        <v>1.001604713659387</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01570503713114602</v>
+        <v>0.1478840405925833</v>
       </c>
       <c r="Q15" t="n">
-        <v>1222.781858344703</v>
+        <v>145.8120705052045</v>
       </c>
       <c r="R15" t="n">
-        <v>1957.763980740228</v>
+        <v>229.9145024211103</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>model_22_9_15</t>
+          <t>model_2_9_10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9998401271269179</v>
+        <v>0.996825893804155</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8251526871187265</v>
+        <v>0.8091304839639802</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9986197999074812</v>
+        <v>0.9882855046340485</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9997295818070083</v>
+        <v>0.9989086973237947</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9994281562545845</v>
+        <v>0.9977684089959152</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0002269163359874211</v>
+        <v>0.02122526274703057</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2481703795734206</v>
+        <v>1.276345332606173</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001071993656570265</v>
+        <v>0.01990567133479729</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0003462334399916723</v>
+        <v>0.01512239739861856</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0007091135482809685</v>
+        <v>0.01751398581846772</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01329013054958035</v>
+        <v>0.3192453326500265</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01506374242966937</v>
+        <v>0.1456889245860184</v>
       </c>
       <c r="O16" t="n">
-        <v>1.000006626854843</v>
+        <v>1.001692856637784</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01570503713114602</v>
+        <v>0.151891203723295</v>
       </c>
       <c r="Q16" t="n">
-        <v>1222.781858344703</v>
+        <v>145.705126335463</v>
       </c>
       <c r="R16" t="n">
-        <v>1957.763980740228</v>
+        <v>229.8075582513689</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>model_22_9_14</t>
+          <t>model_2_9_9</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9998401271269179</v>
+        <v>0.9966231582100686</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8251526871187265</v>
+        <v>0.8086582553750961</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9986197999074812</v>
+        <v>0.9897216569904994</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9997295818070083</v>
+        <v>0.9990473770749935</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9994281562545845</v>
+        <v>0.9980463053034152</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0002269163359874211</v>
+        <v>0.02258095659819752</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2481703795734206</v>
+        <v>1.279503127354454</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001071993656570265</v>
+        <v>0.01746531211306788</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003462334399916723</v>
+        <v>0.01320068461031956</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0007091135482809685</v>
+        <v>0.01533299836169372</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01329013054958035</v>
+        <v>0.3362693323426906</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01506374242966937</v>
+        <v>0.1502696130233838</v>
       </c>
       <c r="O17" t="n">
-        <v>1.000006626854843</v>
+        <v>1.001800982287963</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01570503713114602</v>
+        <v>0.1566669015507712</v>
       </c>
       <c r="Q17" t="n">
-        <v>1222.781858344703</v>
+        <v>145.5812967126262</v>
       </c>
       <c r="R17" t="n">
-        <v>1957.763980740228</v>
+        <v>229.683728628532</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>model_22_9_17</t>
+          <t>model_2_9_8</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9998401271269179</v>
+        <v>0.9963773458082854</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8251526871187265</v>
+        <v>0.8081298418461407</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9986197999074812</v>
+        <v>0.9911215523089242</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9997295818070083</v>
+        <v>0.9991823289193833</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9994281562545845</v>
+        <v>0.998316991654469</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0002269163359874211</v>
+        <v>0.02422470526078426</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2481703795734206</v>
+        <v>1.2830366310557</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001071993656570265</v>
+        <v>0.01508656209087935</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003462334399916723</v>
+        <v>0.01133063016526296</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0007091135482809685</v>
+        <v>0.01320859612807115</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01329013054958035</v>
+        <v>0.3544044367899156</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01506374242966937</v>
+        <v>0.1556428773210784</v>
       </c>
       <c r="O18" t="n">
-        <v>1.000006626854843</v>
+        <v>1.001932082235581</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01570503713114602</v>
+        <v>0.1622689168338091</v>
       </c>
       <c r="Q18" t="n">
-        <v>1222.781858344703</v>
+        <v>145.4407645760336</v>
       </c>
       <c r="R18" t="n">
-        <v>1957.763980740228</v>
+        <v>229.5431964919395</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>model_22_9_18</t>
+          <t>model_2_9_7</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9998401271269179</v>
+        <v>0.9960821750128371</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8251526871187265</v>
+        <v>0.8075387613506988</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9986197999074812</v>
+        <v>0.9924712553872501</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9997295818070083</v>
+        <v>0.999312203043291</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9994281562545845</v>
+        <v>0.9985777616404815</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0002269163359874211</v>
+        <v>0.02619851372908343</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2481703795734206</v>
+        <v>1.286989189050395</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001071993656570265</v>
+        <v>0.01279310044038357</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003462334399916723</v>
+        <v>0.009530938698950261</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0007091135482809685</v>
+        <v>0.01116201956966692</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01329013054958035</v>
+        <v>0.3737232894867413</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01506374242966937</v>
+        <v>0.1618595493910799</v>
       </c>
       <c r="O19" t="n">
-        <v>1.000006626854843</v>
+        <v>1.00208950665982</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01570503713114602</v>
+        <v>0.1687502455041159</v>
       </c>
       <c r="Q19" t="n">
-        <v>1222.781858344703</v>
+        <v>145.2841051954435</v>
       </c>
       <c r="R19" t="n">
-        <v>1957.763980740228</v>
+        <v>229.3865371113494</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>model_22_9_19</t>
+          <t>model_22_8_8</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9998401271269179</v>
+        <v>0.9959712543907042</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8251526871187265</v>
+        <v>0.8144822713753023</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9986197999074812</v>
+        <v>0.9968484927226066</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9997295818070083</v>
+        <v>0.9969816154632924</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9994281562545845</v>
+        <v>0.9968880526774949</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0002269163359874211</v>
+        <v>0.02694024044002898</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2481703795734206</v>
+        <v>1.240557905543947</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001071993656570265</v>
+        <v>0.07150626222639042</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0003462334399916723</v>
+        <v>0.007844583035745359</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0007091135482809685</v>
+        <v>0.03967542263106789</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01329013054958035</v>
+        <v>0.194814965416297</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01506374242966937</v>
+        <v>0.1641348239711152</v>
       </c>
       <c r="O20" t="n">
-        <v>1.000006626854843</v>
+        <v>1.001487536840355</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01570503713114602</v>
+        <v>0.171122383233491</v>
       </c>
       <c r="Q20" t="n">
-        <v>1222.781858344703</v>
+        <v>185.2282683660402</v>
       </c>
       <c r="R20" t="n">
-        <v>1957.763980740228</v>
+        <v>293.70821677931</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>model_22_9_20</t>
+          <t>model_22_8_9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9998401271269179</v>
+        <v>0.9959678978993152</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8251526871187265</v>
+        <v>0.8146528438445364</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9986197999074812</v>
+        <v>0.9964421130147655</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9997295818070083</v>
+        <v>0.9964937873350177</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9994281562545845</v>
+        <v>0.9964767231307636</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0002269163359874211</v>
+        <v>0.02696268531340267</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2481703795734206</v>
+        <v>1.239417286656765</v>
       </c>
       <c r="J21" t="n">
-        <v>0.001071993656570265</v>
+        <v>0.08072683238366696</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0003462334399916723</v>
+        <v>0.009112416279947595</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0007091135482809685</v>
+        <v>0.04491962245707026</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01329013054958035</v>
+        <v>0.1881022777382841</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01506374242966937</v>
+        <v>0.1642031830184868</v>
       </c>
       <c r="O21" t="n">
-        <v>1.000006626854843</v>
+        <v>1.001488776160253</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01570503713114602</v>
+        <v>0.1711936524670319</v>
       </c>
       <c r="Q21" t="n">
-        <v>1222.781858344703</v>
+        <v>185.2266027885706</v>
       </c>
       <c r="R21" t="n">
-        <v>1957.763980740228</v>
+        <v>293.7065512018404</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>model_22_9_16</t>
+          <t>model_22_8_7</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9998401271269179</v>
+        <v>0.9959377211484028</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8251526871187265</v>
+        <v>0.8142673220992923</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9986197999074812</v>
+        <v>0.9972480093318357</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9997295818070083</v>
+        <v>0.9974592808236497</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9994281562545845</v>
+        <v>0.9972922395598806</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0002269163359874211</v>
+        <v>0.02716447738570413</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2481703795734206</v>
+        <v>1.241995272342377</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001071993656570265</v>
+        <v>0.06244141264528563</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0003462334399916723</v>
+        <v>0.006603162157440635</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0007091135482809685</v>
+        <v>0.03452228740136313</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01329013054958035</v>
+        <v>0.2019579324408196</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01506374242966937</v>
+        <v>0.1648164960970355</v>
       </c>
       <c r="O22" t="n">
-        <v>1.000006626854843</v>
+        <v>1.001499918345205</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01570503713114602</v>
+        <v>0.1718330755530676</v>
       </c>
       <c r="Q22" t="n">
-        <v>1222.781858344703</v>
+        <v>185.2116902753601</v>
       </c>
       <c r="R22" t="n">
-        <v>1957.763980740228</v>
+        <v>293.6916386886299</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>model_22_9_22</t>
+          <t>model_22_8_10</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9998401271269179</v>
+        <v>0.995933734202717</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8251526871187265</v>
+        <v>0.8147852978594431</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9986197999074812</v>
+        <v>0.9960325909686383</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9997295818070083</v>
+        <v>0.9960005665631633</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9994281562545845</v>
+        <v>0.9960620476914462</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0002269163359874211</v>
+        <v>0.02719113810986382</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2481703795734206</v>
+        <v>1.238531566049189</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001071993656570265</v>
+        <v>0.09001870076293972</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0003462334399916723</v>
+        <v>0.01039426465039634</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0007091135482809685</v>
+        <v>0.05020648036454788</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01329013054958035</v>
+        <v>0.1818048376389743</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01506374242966937</v>
+        <v>0.1648973562852474</v>
       </c>
       <c r="O23" t="n">
-        <v>1.000006626854843</v>
+        <v>1.001501390448228</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01570503713114602</v>
+        <v>0.1719173781268953</v>
       </c>
       <c r="Q23" t="n">
-        <v>1222.781858344703</v>
+        <v>185.209728327101</v>
       </c>
       <c r="R23" t="n">
-        <v>1957.763980740228</v>
+        <v>293.6896767403708</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>model_22_9_24</t>
+          <t>model_22_8_11</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9998401271269179</v>
+        <v>0.9958741204024574</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8251526871187265</v>
+        <v>0.8148850548937621</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9986197999074812</v>
+        <v>0.9956231340852033</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9997295818070083</v>
+        <v>0.9955061763093729</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9994281562545845</v>
+        <v>0.9956473108172589</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0002269163359874211</v>
+        <v>0.02758977586669637</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2481703795734206</v>
+        <v>1.23786449030136</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001071993656570265</v>
+        <v>0.09930909063045434</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003462334399916723</v>
+        <v>0.01167915242753593</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0007091135482809685</v>
+        <v>0.05549412152899513</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01329013054958035</v>
+        <v>0.1758824691224331</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01506374242966937</v>
+        <v>0.1661017033828864</v>
       </c>
       <c r="O24" t="n">
-        <v>1.000006626854843</v>
+        <v>1.001523401697554</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01570503713114602</v>
+        <v>0.1731729967738229</v>
       </c>
       <c r="Q24" t="n">
-        <v>1222.781858344703</v>
+        <v>185.1806200290024</v>
       </c>
       <c r="R24" t="n">
-        <v>1957.763980740228</v>
+        <v>293.6605684422722</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>model_22_9_23</t>
+          <t>model_22_8_6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9998401271269179</v>
+        <v>0.9958602311546736</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8251526871187265</v>
+        <v>0.8140009700120808</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9986197999074812</v>
+        <v>0.9976361975531788</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9997295818070083</v>
+        <v>0.9979210046898215</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9994281562545845</v>
+        <v>0.9976847212977794</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0002269163359874211</v>
+        <v>0.02768265333058062</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2481703795734206</v>
+        <v>1.243776369975998</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001071993656570265</v>
+        <v>0.053633599016652</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0003462334399916723</v>
+        <v>0.005403172174811986</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0007091135482809685</v>
+        <v>0.02951838559573199</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01329013054958035</v>
+        <v>0.20957165624678</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01506374242966937</v>
+        <v>0.1663810485920215</v>
       </c>
       <c r="O25" t="n">
-        <v>1.000006626854843</v>
+        <v>1.001528530035197</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01570503713114602</v>
+        <v>0.1734642342868352</v>
       </c>
       <c r="Q25" t="n">
-        <v>1222.781858344703</v>
+        <v>185.173898591016</v>
       </c>
       <c r="R25" t="n">
-        <v>1957.763980740228</v>
+        <v>293.6538470042859</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>model_22_9_13</t>
+          <t>model_22_8_12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9998401271269179</v>
+        <v>0.9957936757501638</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8251526871187265</v>
+        <v>0.8149568650039736</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9986197999074812</v>
+        <v>0.9952164814716218</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9997295818070083</v>
+        <v>0.9950139652240828</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9994281562545845</v>
+        <v>0.995235291556089</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0002269163359874211</v>
+        <v>0.02812770962699751</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2481703795734206</v>
+        <v>1.23738429576372</v>
       </c>
       <c r="J26" t="n">
-        <v>0.001071993656570265</v>
+        <v>0.1085358528944654</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0003462334399916723</v>
+        <v>0.01295837668896273</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0007091135482809685</v>
+        <v>0.06074711479171407</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01329013054958035</v>
+        <v>0.1703296483675851</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01506374242966937</v>
+        <v>0.1677131766647973</v>
       </c>
       <c r="O26" t="n">
-        <v>1.000006626854843</v>
+        <v>1.001553104338401</v>
       </c>
       <c r="P26" t="n">
-        <v>0.01570503713114602</v>
+        <v>0.1748530738095544</v>
       </c>
       <c r="Q26" t="n">
-        <v>1222.781858344703</v>
+        <v>185.1420001616099</v>
       </c>
       <c r="R26" t="n">
-        <v>1957.763980740228</v>
+        <v>293.6219485748797</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>model_14_9_7</t>
+          <t>model_22_8_5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9981124142656811</v>
+        <v>0.9957307325377045</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7726438602367558</v>
+        <v>0.8136751797436881</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9977683809693192</v>
+        <v>0.9980079005076193</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9989800096949198</v>
+        <v>0.9983601053618951</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9989787890124103</v>
+        <v>0.9980602281270625</v>
       </c>
       <c r="H27" t="n">
-        <v>0.002679153945484949</v>
+        <v>0.0285486111785392</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3226990370833143</v>
+        <v>1.245954931000866</v>
       </c>
       <c r="J27" t="n">
-        <v>0.003612276000999758</v>
+        <v>0.04519982857251885</v>
       </c>
       <c r="K27" t="n">
-        <v>0.001644732542305455</v>
+        <v>0.004261978386796337</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002628504307573246</v>
+        <v>0.0247309034796576</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3232964687122324</v>
+        <v>0.2176834463375275</v>
       </c>
       <c r="N27" t="n">
-        <v>0.05176054429278105</v>
+        <v>0.1689633427064557</v>
       </c>
       <c r="O27" t="n">
-        <v>1.000296091879893</v>
+        <v>1.001576344909155</v>
       </c>
       <c r="P27" t="n">
-        <v>0.05396409782242253</v>
+        <v>0.1761564620078066</v>
       </c>
       <c r="Q27" t="n">
-        <v>365.8445084525676</v>
+        <v>185.1122939785968</v>
       </c>
       <c r="R27" t="n">
-        <v>581.5855294542391</v>
+        <v>293.5922423918666</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Hidden Size=[12, 10], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>model_14_9_6</t>
+          <t>model_2_9_6</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9979014074876565</v>
+        <v>0.9957305637375972</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7721983594772649</v>
+        <v>0.8068777985734649</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9981184626205238</v>
+        <v>0.9937556727090312</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9991418179388237</v>
+        <v>0.9994355155263954</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9991395524689388</v>
+        <v>0.9988256736751288</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00297864743687463</v>
+        <v>0.02854973994563435</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3233313607419466</v>
+        <v>1.291409050185212</v>
       </c>
       <c r="J28" t="n">
-        <v>0.003045606005068</v>
+        <v>0.010610574581147</v>
       </c>
       <c r="K28" t="n">
-        <v>0.001383817038465307</v>
+        <v>0.007822173189277127</v>
       </c>
       <c r="L28" t="n">
-        <v>0.002214713775429761</v>
+        <v>0.009216354861801062</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3062728783231869</v>
+        <v>0.3943076410152645</v>
       </c>
       <c r="N28" t="n">
-        <v>0.05457698633008817</v>
+        <v>0.1689666829455865</v>
       </c>
       <c r="O28" t="n">
-        <v>1.000329190982328</v>
+        <v>1.002277032673281</v>
       </c>
       <c r="P28" t="n">
-        <v>0.05690044162809656</v>
+        <v>0.1761599444478325</v>
       </c>
       <c r="Q28" t="n">
-        <v>365.6325719234861</v>
+        <v>145.1122149033119</v>
       </c>
       <c r="R28" t="n">
-        <v>581.3735929251576</v>
+        <v>229.2146468192177</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Hidden Size=[12, 10], regularizer=0.2, learning_rate=0.1</t>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>model_22_8_13</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9956964072045152</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8150049127512843</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9948148156161255</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9945270568056978</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9948282501241449</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02877814483962915</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.237063000256214</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.1176494678927652</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.01422381966760716</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.06593664378018617</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1651128148767088</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.169641223880368</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.001589018878333</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.1768632019866999</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>185.0962780793103</v>
+      </c>
+      <c r="R29" t="n">
+        <v>293.5762264925801</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>model_22_8_14</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9955857777779382</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8150328417498344</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9944200054293661</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.994047586968093</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9944280672325335</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.02951792432455153</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.236876238914308</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.1266075308953739</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.01546993026368376</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.07103873057952881</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.1602108999001306</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.1718078121755572</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.001629866666607</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.1791220264310713</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>185.045515191862</v>
+      </c>
+      <c r="R30" t="n">
+        <v>293.5254636051318</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>model_22_8_4</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9955400909410547</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8132807855625377</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9983571736915153</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9987688927757092</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9984126866561475</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.02982343241316074</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.248592246706238</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.03727497938830016</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.003199566764740174</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.02023727307652017</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.2263174177323728</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.1726946218420271</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.001646735652534</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.1800465894209919</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>185.0249217437423</v>
+      </c>
+      <c r="R31" t="n">
+        <v>293.5048701570121</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>model_14_9_0</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9954741390256076</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8179038436326684</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9736463099232248</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9983525441871001</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9916837610534621</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.03026445317543609</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.217677836104048</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.1142519454321105</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.01547965635454204</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.06486580089332625</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5750163781812143</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.173966816305398</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.001905625673428</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.1813729438364741</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>168.995562835375</v>
+      </c>
+      <c r="R32" t="n">
+        <v>267.7245046496993</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>model_22_8_15</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9954647642017688</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8150438163676118</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9940335706045256</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.993577692761605</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9940363129644438</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.03032714266561281</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.236802851594697</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.1353755607573606</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.01669115442382092</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.07603335759059074</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.1556036340070171</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1741468996726982</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.001674548602424</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.1815606937255442</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>184.991424339818</v>
+      </c>
+      <c r="R33" t="n">
+        <v>293.4713727530878</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>model_14_9_1</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.995422448965252</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8180050542370392</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9716275356758164</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9983190502637749</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9911025504426261</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.03061010484704423</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.217001040326589</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.1230039981610719</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.01579436854225594</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.06939918335166391</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5925335672782107</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.1749574372441601</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.001927389909367</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.1824057375594674</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>168.9728502015521</v>
+      </c>
+      <c r="R34" t="n">
+        <v>267.7017920158763</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>model_14_9_2</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9953546595776285</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8180815765095798</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9696480140160038</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9982811748666987</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9905296094396766</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0310634127942245</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.216489335537757</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.1315858779661281</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.01615024948694695</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.07386806372653754</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.6092603427566345</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1762481568534108</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.00195593280942</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.1837514057746418</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>168.9434491796549</v>
+      </c>
+      <c r="R35" t="n">
+        <v>267.6723909939792</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>model_22_8_16</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9953359408931085</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8150406037342838</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9936567498129519</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9931187465431406</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9936542292685723</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.03118858472380053</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.236824334488554</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1439254525909941</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.01788392548261148</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.08090469072804825</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1512800476403452</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.1766029012326823</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.001722114131775</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.184121252356561</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>184.9354062507043</v>
+      </c>
+      <c r="R36" t="n">
+        <v>293.4153546639741</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>model_2_9_5</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.995314450125328</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8061389615669636</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9949582665947555</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9995505555594983</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9990574198334148</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.03133229358690458</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.296349656649717</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.008567085904029787</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.006228040658252684</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.007397563281141236</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.4162395907098929</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.1770093036732945</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.002498959933158</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.184544956190439</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>144.926211938655</v>
+      </c>
+      <c r="R37" t="n">
+        <v>229.0286438545608</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>model_22_8_3</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9952777838843828</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8128074623568201</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9986771068476418</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9991382426400621</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9987350179561364</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.03157748090893765</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.251757361162324</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.03001584204757409</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.002239650741807507</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0161277463946908</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.2355222781183088</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.1777005371655855</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.001743587488843</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.1852656169235475</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>184.9106220837887</v>
+      </c>
+      <c r="R38" t="n">
+        <v>293.3905704970585</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>model_14_9_3</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9952737879212005</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8181370240850387</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9677141451503128</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9982395527029703</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9899670987204217</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.03160420193313785</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.216118557345351</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.1399698378393791</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.01654133541848088</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.07825558897083575</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.6252250948156355</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.1777757068137766</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.001989984033179</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.1853439866992847</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>168.9089303893234</v>
+      </c>
+      <c r="R39" t="n">
+        <v>267.6378722036476</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>model_22_8_17</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9952014491313776</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8150255672831792</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9932904053764188</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9926721971557063</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9932827315333106</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.03208793175377241</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.236924883306327</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.1522376407086705</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.01904447799230273</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.08564105935048663</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1472191293110307</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.1791310463146252</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.001771772628414</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.186757025808624</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>184.8785505547249</v>
+      </c>
+      <c r="R40" t="n">
+        <v>293.3584989679947</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>model_14_9_4</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9951825079865487</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8181743924277901</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.965831274039453</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9981948463046865</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9894169032527622</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.03221459127645954</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.215868675065307</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.14813270561186</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0169614011203125</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.08254705653051511</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.6405324212770942</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.179484236846748</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.002028417689874</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.1871252523929045</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>168.8706715676788</v>
+      </c>
+      <c r="R41" t="n">
+        <v>267.599613382003</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>model_22_8_18</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.995063176463976</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8150008183569208</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9929353036047825</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9922389382631323</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9929225924764703</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.03301256171737436</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.237090379490175</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.1602947378893817</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.02017048937933413</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.09023261177901262</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.143401175309862</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.1816935929453055</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.001822827151763</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.1894286653545751</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>184.8217342636906</v>
+      </c>
+      <c r="R42" t="n">
+        <v>293.3016826769605</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>model_22_8_2</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9949318868801704</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8122434356810047</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9989597748064848</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9994577753961745</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9990191120582288</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0338904957688152</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.255529010140606</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.02360223503069832</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.001409206109097432</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.01250572056989788</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.2455069852242737</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.1840937146369077</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.001871303305783</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.1919309651955257</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>184.7692413294122</v>
+      </c>
+      <c r="R43" t="n">
+        <v>293.249189742682</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>model_22_8_19</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9949227341997279</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8149681469094548</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9925920506158333</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9918196620657046</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9925744216869219</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.03395169978507903</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.237308853609818</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.1680829915970146</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.02126016066065489</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.09467157612883473</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.1398179517530709</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.1842598702514441</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.001874682757024</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.1921041943985625</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>184.7656327178471</v>
+      </c>
+      <c r="R44" t="n">
+        <v>293.245581131117</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>model_2_9_4</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9948249059131065</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8053134128705886</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9960608910821209</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9996555181956341</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.9992694511903095</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.03460587798817447</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.30187010458368</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.006693468649035596</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.004773552613587151</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.00573349752226014</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.4396093406568472</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.1860265518364904</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.002760050179677</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.1939460872762192</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>144.7274634545917</v>
+      </c>
+      <c r="R45" t="n">
+        <v>228.8298953704975</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>model_22_8_20</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9947813952937796</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8149291142408316</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9922609017132529</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9914149519797832</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9922385058966379</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.03489683369996063</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.237569865244631</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.1755966091075181</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.02231197557548901</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.09895429674289735</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.1364508599450066</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.1868069423227109</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.001926869429989</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.1947597006010691</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>184.710718357638</v>
+      </c>
+      <c r="R46" t="n">
+        <v>293.1906667709079</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>model_22_8_21</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9946403265629684</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8148850483107968</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9919421762052135</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9910250755780678</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.991915157397413</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.03584016095245719</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.237864534321678</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.1828283454641449</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.02332523871997562</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.1030767920920602</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.1335396155304631</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.1893149781513792</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.001978956345981</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.1973745087073137</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>184.657372400049</v>
+      </c>
+      <c r="R47" t="n">
+        <v>293.1373208133189</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>model_22_7_9</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9946140413796437</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.8117910330610509</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9948333779095234</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9665688162097809</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9903136829165685</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.03601593009438177</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.258554228543359</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.06342153767454081</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0794812625311178</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.07145140010282931</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.469803184777552</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.1897786344517785</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.001988661644439</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.1978579038163219</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>184.6475878715594</v>
+      </c>
+      <c r="R48" t="n">
+        <v>293.1275362848293</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>model_22_7_10</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.994601985241521</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8117308902671727</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9945019721895637</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9640283151342731</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9896285353365897</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.03609654954552143</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.258956403682955</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.06748962316365151</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.08552119920252275</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.07650541118308712</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.4509395885022951</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.1899909196396539</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.001993113141592</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.1980792264241361</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>184.6431159973357</v>
+      </c>
+      <c r="R49" t="n">
+        <v>293.1230644106056</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>model_22_7_8</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.994597665498878</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8118237268984685</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9951692826896376</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9691211696838236</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9910044839441998</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.03612543568446595</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.258335604702006</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.05929822513222507</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.073413147270361</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.06635568620129303</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.4898661986275405</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.1900669242253001</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.001994708123491</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.1981584666823444</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>184.6415161443053</v>
+      </c>
+      <c r="R50" t="n">
+        <v>293.1214645575751</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>model_22_7_7</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9945473642586997</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8118230967759483</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9955078972978733</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9716696483158281</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.9916969152452855</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.03646180030915393</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.2583398183342</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.05514164879331415</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.06735424428695649</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.06124794654013532</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.511214546879017</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.1909497324144601</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.002013280889096</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.1990788578437818</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>184.6229802665994</v>
+      </c>
+      <c r="R51" t="n">
+        <v>293.1029286798692</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>model_22_8_22</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.9945004255145097</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8148371128739428</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.9916359160882922</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.9906501419871017</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.9916044236459393</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.03677567990768615</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.238185078808643</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.1897772477837278</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.02429966648140074</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.1070384571325643</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.1309570963447985</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.1917698618336212</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.00203061211772</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.1999339018702185</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>184.6058370487064</v>
+      </c>
+      <c r="R52" t="n">
+        <v>293.0857854619762</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>model_22_8_1</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9944888544341915</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.8115754248334115</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9991961413538886</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9997154406062465</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.999255700051655</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.03685305577505293</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.259996001754369</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.01823918591402935</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0007395511624689753</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.009489368538249162</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.2561454369451499</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.1919714972985649</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.002034884516606</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.2001441213743479</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>184.6016334781774</v>
+      </c>
+      <c r="R53" t="n">
+        <v>293.0815818914472</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>model_22_7_6</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9944567997970085</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8117823121892525</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9958468736407973</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.9741947011812878</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9923858724589435</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0370674052814939</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.258612545053232</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0509806320734808</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.06135103509867568</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.05616583358607824</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5339242485675535</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.1925289725768407</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.002046720074951</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.2007253295293528</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>184.5900345187466</v>
+      </c>
+      <c r="R54" t="n">
+        <v>293.0699829320164</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>model_22_8_23</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.9943624629472316</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.8147862668184568</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9913421547374333</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9902902387287572</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9913063436059956</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.03769823623033369</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.238525086615803</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.196442558804007</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.02523503139617008</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.1108387951000885</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.1285307228558157</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.1941603363983841</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.002081552142561</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.202426143886168</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>184.5562839399277</v>
+      </c>
+      <c r="R55" t="n">
+        <v>293.0362323531976</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>model_14_8_1</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.9943383669637988</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.8319339923848623</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.9365515682278327</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.9984743577538276</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9983143480753774</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.03785936618250003</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.123858166795233</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.01151076452352538</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.01573322102495176</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.01362199466127891</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.2799101004484123</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.1945748344018312</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.002383845488927</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.2028582879277509</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>168.5477537488534</v>
+      </c>
+      <c r="R56" t="n">
+        <v>267.2766955631776</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>model_22_7_5</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.9943186575426741</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.8116933188446952</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9961833942993482</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9766733539328073</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.9930653090377672</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.03799116317231493</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.259207643958062</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0468497594741686</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0554581402702061</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.05115394987218734</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.558193206448322</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.1949132195935282</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.002097726445782</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.2032110788776124</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>184.5408033887925</v>
+      </c>
+      <c r="R57" t="n">
+        <v>293.0207518020623</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>model_2_9_3</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.9942517112914248</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.8043912496863987</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.9970438468973863</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9997483154234428</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.9994577843916235</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.03843883306267837</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.308036614042527</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.005023196496112148</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.003487643042383331</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.00425541976924774</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.4645164299069868</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.1960582389563835</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.003065753977907</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.2044048440852612</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>144.5173741054226</v>
+      </c>
+      <c r="R58" t="n">
+        <v>228.6198060213285</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>model_22_8_24</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.9942270516041014</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.8147333933507062</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9910607705037882</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.9899454036036281</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.9910208128837203</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.03860373250535732</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.238878651738112</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.2028270386818513</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.02613123522302505</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.1144791369524382</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.1262511938385172</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.1964783257902951</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.002131550176947</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.204842814885392</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>184.5088126203125</v>
+      </c>
+      <c r="R59" t="n">
+        <v>292.9887610335823</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>model_22_7_4</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.9941245774467613</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.8115469761973823</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.996514207598306</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9790781035029531</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.9937280873083864</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.03928897766734039</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.26018623791449</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.04278894609635946</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04974094721160213</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0462649466539808</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.5840619099581087</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.1982144739098041</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.002169386788888</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.2066528744246706</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>184.4736225318498</v>
+      </c>
+      <c r="R60" t="n">
+        <v>292.9535709451196</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>model_14_7_9</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9939971213765194</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8319014280065958</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.9892696325710681</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9930383703798232</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.9924966254074058</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.04014127699592952</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.124075924942646</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0420695977391662</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.1613320003978789</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.1017007990685225</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.2610306136350521</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.2003528811770111</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.002527527841466</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.2088823181163559</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>168.4307002451384</v>
+      </c>
+      <c r="R61" t="n">
+        <v>267.1596420594626</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>model_14_7_10</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.993996512033856</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8321307847215917</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9887093463189452</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.992893789134383</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.9922919901193513</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.04014535167312554</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.122542215533378</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.04426626224312742</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.1646825925464895</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.1044744273948084</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.2592405671759178</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.2003630496701564</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.002527784406797</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.2088929195033061</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>168.430497238622</v>
+      </c>
+      <c r="R62" t="n">
+        <v>267.1594390529462</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>model_14_7_11</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9939770604742335</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.8323285518599728</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.9880844128101407</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9927538471648977</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.9920819710347695</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.04027542434188687</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.12121974576839</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.04671638349976268</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.1679256719845638</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.1073210277421632</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.2575548829611977</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.2006873796278353</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.002535974537165</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.209231056858739</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>168.4240276277264</v>
+      </c>
+      <c r="R63" t="n">
+        <v>267.1529694420506</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>model_14_7_8</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9939749464220411</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.8316358946995509</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.9897466324933181</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9931873055801689</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.9926929372253497</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.04028956101863182</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.125851547389524</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.0401994665452836</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.1578805076997072</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.09903998712249543</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.262937859050857</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.2007225971798687</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.002536864664404</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.2092677736948728</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>168.4233257507595</v>
+      </c>
+      <c r="R64" t="n">
+        <v>267.1522675650838</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>model_14_7_12</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.9939420996323638</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.8324988131574014</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.9874106250866088</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.9926186901076643</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.9918689767924275</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0405092076524494</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.120081207688504</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.04935804313335038</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.1710578636697036</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.110207953401527</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.2559656334012528</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.2012689932713169</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.002550694891636</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.2098374309991298</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>168.4124519625328</v>
+      </c>
+      <c r="R65" t="n">
+        <v>267.1413937768571</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>model_22_8_0</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9939333247729243</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.810788453994349</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.9993759030610323</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9998974421876029</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.9994342074986703</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.04056788517792624</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.265258479378847</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.01416047479649948</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0002665410140853973</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.007213507905292437</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.2674765358541109</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.2014147094378319</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.002240003160766</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.2099893506045274</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>184.4095570617083</v>
+      </c>
+      <c r="R66" t="n">
+        <v>292.8895054749781</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>model_14_7_7</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9939254366914392</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.8313290145365684</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9901186193358923</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.9933401784180309</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.9928774273434686</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.04062063281513811</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.127903656452442</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.03874105079810528</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1543377623822461</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.09653940659017572</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.2649615472070489</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.2015456097639889</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.002557710866762</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.21012582362857</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>168.4069582880917</v>
+      </c>
+      <c r="R67" t="n">
+        <v>267.1359001024159</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>model_14_7_13</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.9938945141933918</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.8326450124220781</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9867015789293271</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.9924883563724251</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.991655006575704</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.04082741170196624</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.119103572532425</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.05213793737396276</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.174078277476916</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.1131081074254394</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.2544707555963768</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.2020579414474131</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.00257073086594</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.2106599663324303</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>168.396803135451</v>
+      </c>
+      <c r="R68" t="n">
+        <v>267.1257449497753</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>model_22_7_3</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.9938649962567346</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.8113324701850917</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.9968354650829194</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.9813771835854043</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.9943658860266841</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.04102479828030989</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.261620640606387</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.03884543265433903</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.04427497900778311</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.04156020583106108</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.6116079659310695</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.2025457930452022</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.002265232151359</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.2111685867827294</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>184.3871571180247</v>
+      </c>
+      <c r="R69" t="n">
+        <v>292.8671055312945</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Hidden Size=[22], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>model_14_7_6</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.993843471242587</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.8309748732048708</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.9903600451667939</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9934966758453644</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.9930461331617232</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.04116873614902916</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.130271801168174</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.03779451400361608</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.1507110191645853</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0942527665841007</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.2671172284972567</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.2029008037170606</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.0025922226347</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.2115387109938622</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>168.3801522840383</v>
+      </c>
+      <c r="R70" t="n">
+        <v>267.1090940983625</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>model_14_7_14</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.993836851779367</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.8327702378303526</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.9859683866436665</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9923630697279326</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.9914418588470084</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.04121300053006109</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.118266189650683</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.05501249919372269</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.1769817276864061</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.1159971134400644</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.2530638340127611</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.203009853283187</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.002595009777109</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.2116524030257822</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>168.3780030511099</v>
+      </c>
+      <c r="R71" t="n">
+        <v>267.1069448654341</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>model_14_7_15</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.9937711799398387</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.8328772149021402</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.9852206627835689</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.9922426922287728</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.991230806223145</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.04165214842337833</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.117550833479056</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.05794403366564281</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.1797714111085277</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.1188577223870852</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.2517373619640998</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.204088579845562</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.002622661077963</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.2127770532111894</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>168.3568046578109</v>
+      </c>
+      <c r="R72" t="n">
+        <v>267.0857464721351</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>model_14_8_0</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.9937545596222882</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.83264916830434</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.9474197840434178</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.9985985470411247</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.9985155827109911</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.04176328856336762</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.119075782128603</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.009539061369485702</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.01445251612124398</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.01199578874536484</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.2606579926899898</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.204360682528141</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.002629659106405</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.213060739868296</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>168.351475178771</v>
+      </c>
+      <c r="R73" t="n">
+        <v>267.0804169930952</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>model_14_7_5</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.9937230128273551</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.8305666714070925</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9904411642201661</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.9936562968808613</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9931943242877791</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.04197424212634491</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.133001448469514</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.03747647774186155</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1470118880175256</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.09224418287969356</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.2694197131753779</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.2048761629041917</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.002642941967429</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.2135981653111467</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>168.3413982630792</v>
+      </c>
+      <c r="R74" t="n">
+        <v>267.0703400774034</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>model_14_7_16</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.9936994048005178</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.8329682759329883</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.9844665419285673</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9921273438479246</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.9910231277660646</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.04213210911051097</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.116941907946477</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.06090064826684398</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.182444547434391</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.1216725978506175</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.250493027970287</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.20526107548805</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.002652882189256</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.2139994644205787</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>168.3338902845621</v>
+      </c>
+      <c r="R75" t="n">
+        <v>267.0628320988863</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>model_14_7_17</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.9936230555555425</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.8330455446203719</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.9837126260274319</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9920168829164335</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9908196571986171</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.04264265686321649</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.116425211878153</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.06385645932364038</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.1850044197653784</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.1244304395445094</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.2493107549914317</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.2065009851386101</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.002685029239772</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.21529215959193</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>168.3098003837816</v>
+      </c>
+      <c r="R76" t="n">
+        <v>267.0387421981059</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
         </is>
       </c>
     </row>
